--- a/bases/responsaveis.xlsx
+++ b/bases/responsaveis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adc2d7b08d73a750/03 CURSOS/01_POWERBI/00_EXTRAS/99_ARQUIVOS-MODELOS/01_GESTAO DE PROJETOS E ATIVIDADES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adc2d7b08d73a750/03 CURSOS/01_POWERBI/00_EXTRAS/99_ARQUIVOS-MODELOS/01_GESTAO DE PROJETOS E ATIVIDADES/bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{C19AEEB6-AAD6-4608-8A2D-6719758F32F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72C1C074-7CFC-4AFF-B78E-7F5FC94F1A34}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C19AEEB6-AAD6-4608-8A2D-6719758F32F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F22B1E2-66AC-4AB9-B7AA-47E2A384C93F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4470" windowWidth="20730" windowHeight="11040" xr2:uid="{463B184F-0A15-4994-8B35-C97EB30C2BF4}"/>
   </bookViews>
@@ -42,16 +42,16 @@
     <t>Foto</t>
   </si>
   <si>
-    <t>https://scontent.fcgh13-1.fna.fbcdn.net/v/t39.30808-6/292777598_3239954282913995_2029280128632086324_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=09cbfe&amp;_nc_eui2=AeFM6kxk6NgL4wYKrwNRGIR5--yhckxdWHb77KFyTF1YdrAkpQi3bMQ8d68L64k65MF-7DWKTjxCmjuhtquzLe1l&amp;_nc_ohc=oyqH1WF-wK8AX_vSsqD&amp;_nc_ht=scontent.fcgh13-1.fna&amp;oh=00_AfDN1enJ8LgyfJ26bdAK6yNev0Pl6gWyijSEvz_agDIujw&amp;oe=63B9B7A3</t>
-  </si>
-  <si>
     <t>Luane</t>
   </si>
   <si>
     <t>Danilo</t>
   </si>
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTEhMVFhUXFhgbGBgVFxoYGBYeFxgXGhcaGBsYHSggGBslHhcWIjEhJiktLi8uFyEzODMtNygtLisBCgoKDg0OGxAQGy0lICUtLS0tLy0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAABQQGAgMHAQj/xABDEAACAAQEAwUFBQcCBgIDAAABAgADBBEFEiExQVFhBhMicYEHMpGhsRRCUsHRI2JygpLh8BXxFkNjorLSk6MkRFP/xAAbAQACAwEBAQAAAAAAAAAAAAAABAIDBQYBB//EADYRAAEDAgQDBwMEAgIDAQAAAAEAAgMEERIhMUEFUWETInGBkaHwMrHRFCPB8ULhUpIGYqIV/9oADAMBAAIRAxEAPwDuMEEECEQQQQIRBBBAhEEYO4AJJsBuTwjm/az2uUtPeXSD7TNGmYG0lT/F9/8Al06iPWtLjYLwkDVdKJin497ScNpbq0/vXH3JA7w3HAkeBT5sI4P2j7YV1cT9ontkP/KTwSh/KPe/muYQBYZbT/8AIqsy8l1zFvbfNNxS0qqODTmLH1RLAf1GKpiHtOxWb/8As92OUpEUfEgt84p9oLRc2Jo2VZeUxqe0NbM1erqWvznTLfDNaILzmY+Jmb+JifrGFoImG2XhctktyNVYg9CR9InSsbq09yqqF/hnTB9GhbaPYMN0XVrw/wBo2Kytqt3A4TFRwfVlzfOLThntrqVsKimlTBxMtmln4HMD8o5UBHpiJiadl6HlfRmBe1XDaiytManc/dnjKP6wSnxIi6ypqsAykMp2INwfIjePj20NMA7R1dG2amnvL11UG8tv4kN1Pna/WKHU4/xKmJea+s4I5L2U9skp7S69O6bbvZYJln+JdWT/ALh5R1KlqEmIry3V0YXVlIZSOYI0MLuaW6q0EHRSIIIIivUQQQQIRBBBAhEEEECEQQQQIRBBBAhEIe1XammoJXeVD6m+SWusyYRwUctrk2AvqYT9v+3srD0yJaZUsLrL4IDs8y2y8hu1uGpHz7i2JTqma06e5mTG3Y8BwCjZVHACL4oC/M6Kt8gan/bLt7V4gSrHupHCSh0I/wCod5h6bdOMVK0Zx6wh5rABYKguutcEFo9iQCiXW1XkS5GGznXMi5he2jLceYvcfCJlLgE5gGYZFOxa4v5DeJ1DhEyU4eXPl34g3sRyOmohSWribcB7cXXMedloU/D532c6NxaeVgfEX1+ZpBOp3T31ZfMERpjplGA5yMACVJA3Fxw6j9IrmO4PLKM8oZXT3lHusvFlHAjiOWsUU/EmyOwSCxO98r/wm6vgr42l8LsQGdiLG38+x6KrR5eGNBSoJsr7QcspyLsNfDcg+twR0i19q/Z60kd5TMXS18u5Ite6Ee9prb5naHpZ2RkY9Dvt5nbxOQ3IyWSyF7721G2/kqHePY8tHkXlqquso9SUxvlUm29gTbztGVPJLuqLuzADzJtDCtr2Vu7p2ZZcvS6kgub6u1uJP5QpUSiJt7JqlpzO4i9gNSsTgU/uhNCZlKhvCbsARe5Xf4XtxiV2U7XVeHvmp5ngJu0ptZb87j7p/eWx8xpGOD43PlzldixBID3Frjnt7w59ItNRglNOmsCuts4CHLmB3GnXb/eFxVNcO8E0+ge090+uV+a6v2J7d0uIrZD3c8C7SXPiHMofvr1G1xcC8W2OHYf2Rp5Ty6iSzq8tswDTNLgaaix+YHA31jpHZvtQs49zNKiaNiDdX04cm6Qp28bnWaCPEW/vxGS8NNI1tzbyVpgggixUoggggQiCCCBCIIIIEIik+0ftumHysiWapmD9mp2Qbd44/CDsOJFuBIc9sO0cugpnnzNTtLS9jMc+6o5DiTwAJj5mxfEptTOefObNMc3Y8ByCjgoGgHIQxBDjNzoq5H4chqtNZPea7TZjl3ckszG5Ynif86RqECxsyxoBvJKkrUVgURvycYxZLRPCo4lgUhzgWMS5RHeSgwH30CiYP6gQ3yPWF0tL+seLIJNgI8lgbI2zhcKcNRJC7Ew2Kvq1kmcjNTzWcgXaVNXK9hqSutmsNSByO8VjEpliGQ+Fhv15RHl0M6SVmA5WGqkEHbkb6+kMJNKrAvMOSUTmAHvE8VQcB7wueXHW3PVdLHGbxuBG4ve3zquroK+Z7CJ2kHUGxGIemfkt3Z+omNNXKGcqQbKCTYmx26Ew1xHC6kO7pLzLqdGQn+kNc31FrcYiyMRYLklASZXJfeY82PE/ExMpsVddpTP1J/Xb0hEMGicNS/XLzzVZxRFNKoX/AJbEi+4Dk3HxK/COoYM5/wBOpgwKt3YsOQOqgcbBSLDgLDheKBjMsTQ+RSJhGqnQtqPidPX4ReJs6SspFlNdVlKF46IAv+eUacUl6cNcb9468iB7G6yKiNpqg9gsMLfUEj7AeSrXbDssJ+WopgoZjaatwq3/AB34a789PXRhPs4zhWnVAF90lrc/1sbD+kwxpccUab6m3S5Oo6m+kScIx1TOyCYpBB8I1yncePZjprrxhCatrYKXDERdo1IubDqeljndTNDBJKXEa+QunmH9lKOQBklLca5mu7X53bb0AiHilBTLLZFlouhtlULY+gj2sxjgDpFXrcdlszJ3gXhcg2HnbQfGMKnouIVsuKVzidfL7BPtENK3E8ho+eZVdxG17RLoMQKz0a/uLqfK/wCvyjCsanXUTe8c/hFkUdOHxMNKfBFMiXNViVmpmLZbgMLhpZswsVYH6x1kFA6Id7dZlXxNkpIhube/W2tvFL6TtJNRhcm1gNekWfE6kTpAnStHS17HXoYqdJhwqWmy5bgzJaZgtrZwpAcDU3tcfAwy7JZc2WYmYm65CLm/QcPOIzx4BnoVOmm7W5/ybrZdH9mvb5aq1NUECoA8DH/nADX+cDccQL8DHRo+V8dpJlNU+EPKYEOhNgVINwVKkjQ9Y7x7Oe2AxCn8dhUS7Cao4/hmKPwtb0II5EsFg7NsjTcELMkP7rmkWsdlcIIIIrUUQQQQIRHl49iu9qO0C02RO7aYz3uFVmso3Jyqdzpbz5QXA1XoaXGw1WWMYZS1LA1EmXNyghe8GYLfewOgJ0130HKKzU4Dg0hj/wDiS2J3HiYD0ZiB6RliGL1Ip2mpJHivluwsm9zMBN1A103vppFeoMynvKgmaXFiDsCTcZRsLAHaMqeonZfC63rbyWvTcOZIzG7bbe69xrsbhtSCaW9LN4XJaUx5MCSV8125GOZVtBMkTGlTVyupsRv5EEaEHcEb3jq1RKlKQZc0KD91yfraE/ayhl1EtcryzOQ2HiAup3GZrDQ2I14sOMM8M4rKJBHUG7To7kevQ6dNdLpSu4YzAXw3uNrH2yXPl0/ON60hbQC99oZU3ZypJy5U8xNlEH4PDaVhk2SLNKmKDxZTv52sfSOpZNG4d1wPgQftdc/JG9n1AjxBH3sqzKpCrZW9OQMOnpy6gqNfh5xjiFD3moIuIlYU/h66g+dt/pHkrnBhcwZi/wBl7EGOka15yJF7cri59FATD8hOc+EAkjbbl6kC/WFs+qM2aANhoANlHTl/aJuN4i1ypN0axHly9Dp6RK7O4P3qJ3ZAZy5LHZVVso89QfPSOZllfN+4+1/C3zzXXNhjg/ajvblcnxOel+gURqkhllyxdzoAN/0A5k6RhUyp4GY79GuR8NPhFpqMOk0wKSczzGA7yY27/hUAaKut9N9L3tEik7INOTN3dQ1+Muyj+XNbN84TdP3sEYvbWwv/AF5/wmWsaGY5DYHTQff2VJlYmzgKxuw91uPkTx+t4mzcTPdyyWOYhww/ia4+hPrG6s7JzFn2VjodS65XS+2dCfmDYxPxPstnIylbXGhvYeu5F/lBJWxRuDSbc77L1tOSCfTqkFJLM6YJeYDMbA7i9jYacNLRlg5dJmtwRe45EGxjqUj2byUpVeTm+0BQ6FjoSPEoI4XsPK8UQUxLTJmWxLt4TuDfUa9bj0jTgiMrgy2RF/L4Vnz1cUUZkacwbW5n+RkT4DySzG8RcnKGIHG25hGy2hlMlZ3JOw3Pl/nzjGmkAku3ur8+Qjo4oWQswMFguXmqZJ345Dc/NOSitJyLb7zfIf3iLNdlBUEgHcAkA+Y4wwma3c8Tp5/oIhuvH/POJObYWUGFaaGrmSJiTZTZZiG6nl6cQRcEcQSIvvZqqFQvey1CzpbftkQ7hiSJqhiTl1sRwI6iOftLvEijnTJLLNluyONVZTY/7dNjGdV0bKmMsctGjrH0z8TfMc11aoqqaqUy6sWtsdQV6gjj8oo+H4ocNxDvaZzMRGsb6GZLaxZGG1+R5qD0hZVdop806lQTuVVVJ9Bt6ARBGm+8Z/DeHS0xcHPu07fz08ut9k3xCrp5sJiaQ7c5em9/E+S+ssNrpc+Uk6U2ZJihlPMEfI9Ilxx32HdpNXoZh01mSb//AGIP/Ifzx2KJSMwOLUu11xdEEEEQXq8McfxmpmVdcBJZFeYD3DzACuVSwQKAMwDZWN7nc6AEX6jjDkSmA3bwj13+V4prYZKRJPeAKZJtLmAeMZriyngSDbSEKqpiY/A/PK/n8vqbaEpqFsoYXxEXvbPlv+Ms1AwHEaiXleoKMTO7qb3YORgZndI633INteKk9IYdpcFEsKVvYsSLknLp7ovsL6gcLkcIxOLyEIlGV4VIdc3u+Agi5Hu2yqeWkSJ+OJVIMjIQGHuHMAeNyOOohF5DoX+2th0v9loMeWzsI89Lnrb7quV+H2COwuoax8m2J9frHlTgssj3F9AB9Itj0SzZbIdmFr8uR9IQYZMPilv78s5T6aXiFOcOR3+WTrZi69tlWqnBgPduPImIImVMo3R2/lJB/QxeJ8gGE2IUwGu0XPijd9QCvZPdKpPa6ZtMCOf+oik/MXhzSY/KeX3byZZS9yAqgAniLWIPlFZrqcNuPUQsu0s6ajrC7sQP7UhB6OP5svHU8El7sB8h+FeRQ0XhK0ykqQwJLGxGvFj8In08xQb5EWw0sAFFiSNB1JiqYVioOhOsTZ2IEwh21VG+2M+efscl7+ljOycYHQLOqWd/EiHj952116Aa26iOiUlRFF7Nzh3AI4u9+utvoB8IsdDVCOooohHC0bkXPUrAr5DJMeQyHl+VD9oFZTIssTA3fNmyMiglQLXz66oSRoLm+oGkVOgnhxcW4j1ESPapVT5LyaqnYqyI3iABsAbPoQRa0wegPKKthVYwWnmcJ0q7dXR5kqYwH73dhv5jCHGKRr4xK36tP5z8s1Lg9VJ2zoXfTtzBABPkbnlYjquu4J2mSdNeUJeVFJRJl7q7KoLKRbwkA3G9xy2iie0im+z1BZR4ZozD+Imz/r/NEns1ga/bvtiMbtKCsoAynxy2LFr6aIRa2pI6w49oFEZ0qW4XM0tzYcwy6jXqFjY4ZWsfaU5N3vkNBfXYOyvp1WXVUz24o9SDlzt/X++a5fOlBgJa+81i35D84kUFRIlTVSaAVUi99ieJ84PsjyixmC0wm3O1+I6RWcWmnvHB3uR8CR+UaPFZHiFuA/UdRuLfb7qzglPG+ZxePpGnI3t7K+9s3opqL9nADWJ0AHW3rFAeXc6QxwuSTKzk6+6B5iJP2dZa3bUnhz/tE+GskbEQ/QnL0Cr4sGNmaG62z9crpX9nCDM3oOf9oWVLFjDKpzMbnf5CIM7TQep5w65qzmla3kFVVtwxIB6g6jz1B9YnzaLNMm2PhUMRfiRcZPO4bT90w67Bypc1jImrmUsrpfZXGi6/vXy2/evwjyb2PrS+RGluocspEy2txr0I/MwhJUxROImcG25kC4219PJW4JHuAjBOWwJ3z00OQ/7eSRYVib086XPle/LcMOtt1PQi4PQmPquiqVmy0mL7rqGHqLx87452Aq5YzqocaZraEGwubdWzfKOqeyjFC8qopm96mqGA/hmEsP8Au7weQEUTFkjBIw38FZDKMeDTI3BFiDlqDnur7BBBCibVT7Y13dtLKnxKGNjexzaa24ix4cTHN63tBUVlRKGUrKlTLte1yUzA7db/ANuLftRKmzcQnMk2cqpkTQgSwFUXGVgQ5uW22vFYxcVoyrcFZmiuqqGbgFbLop22Avvzir9AZpfqHe0vcWyztsSNfstBtQ2nhxPZfwIJz0yvcDxCZ43VNNYSJVi80ZSeSnQ67C+xPAHmdMuzkqZSzXpp6lGaxUG1rjkRoQRsRytDHs72elmb3WbalyBr/fbK5ZfIsxHQCItDThs0ip8T5ie9Hvq2Yi55jp/uAYGQGlc28ZzxAd617h9twBbL/iqS0ukFQx3fbYYToebb7HWx3NtFc8NqtCp4C/6xSy88H7Vv3jMbDgAfdPkLf4IaS6ibJfJN99bZZi65hwJHEHnD6lKTFVQirY38F7cdr7bxVT8OkYDFI27TazxYiwBIIOt74Ta2gIOSjUcSjaRNEcxqw3BvcXB6WuL7GxSyhrEnIGU+Y4iNVZTggjgY1412ZnSmM6kvcnWWPmV1tb934cor8ztRMQ5Z0sqw3BBU+oMJyNdEcMg89itamnjqG44j4jceI/nQrXilFl2P6xW6xst7tDesxszb91IBPEhbnz0jb2UwwNNLuoOTmL+Lpw0hIsDLu2+c042QtK8wrsZVTFziwJylbnQg8dNQRGqppJ8pskyWykcxofI8RHSZdTlG9okf6sj+FvF+UKumc65sqxUSA6XHoqH2dxDu1MqZpqSt9N9xFjpqvXeJVfh0qaPdB+vpbUGET4GQf2c516NZvnoYcp+NBjQ2VpBS8lKyZxc11r63Hz7KxzXWYoBtcG4zC42IIYcVIJBH6RUsekCbPkLKVQJSkZZYtLRRayroON+A320hzSYS2neTWI42FoaS6aUgsqgfU+cI13Go3n9tmdiL9D6fnqow0scD8d8R2tkPHPX0SvDg0va4/KJNdPZxrNIHLh8owqqhRyivVmIM5yoLn/NTGfAZTcNJAOovl5jQrQbHjdjI03WWNtLYqFN5moFhpY84qWJ9nWVjMzAppfnc8LcdYtNPTCXqTdzufyEb6xQJa3Fze9uZ2H1MdbwMyyPZAXExtvl5/wB25JCuMVLG+dgGI78zoOlvuq/T0wloG42sF/zjCqpcsxvvx5L0EOayWwOceRPBP3fPrCWcCxsBYf5qY7prLDJcS95e4uJuTqsPsuZbDTl18/yjA4OAAztZdLjjc/dHPjrwAhnTJYhd1O7fht70Y1CHvElEXZeHNm28zbu4T4jUimgLh9Wg/Pkr+HxfqJwy9m5k+A+2wvtzU3ApDTXSXKSwzDKo0FswzG/Fgtzm306R06U8rKsxwocPlewAJKnU2G99GHRhFcmpMlYa32jwzASZQY+Ndsuu446cjaKZhU2dOe12mMTdrm4B0HE22A+AjjahrmtJeMTnC/e1HiOhF8iMsrDbbitVP/bcGsiOHunI9Q7IWINiLHPO537JW4mssJa0wzHyqo1zeEkj6bwtw3DJlLiEtwV7qekxXlqLZJhImK+5uDlZOlxveDA6CoVVYqDbyNvL+0NK24mJPOliqm5FrFgdOZ3haGskY5zpGkG4NrGxBNiR4C515qZo42gMYQbA2OV+g8Dvz1VngggjosBSVwuJ49i84VE3MAELt3bKttLnfXxDY5rW2EIq+onAITLdldrAqxsCQSQSAcptc36Q972RNvutzc5D4T5qbgelojGuY1IlWEyWqkoqqAVuRrdmsSTe+2y2ta0WvpTG04+8PT50snqatEmFkXceTrYHQZZ6qZh1TMSzKGLjLrpYZQAPeNzoBqRrESmkOaibOJ0mMxbzIT3bfdHiEe41QWmSnEudKllgHAddMxFjYEgjXhaH1JJVrXIAAFtCbjpYW/3hlksJHaHINFuZz0Fhc+Sy54po3dnqTnfQZZ6nK435LKlmzalUfugUGga9pltL+E7gHN+UWSgpygtaK9Kw5yQJbZJSKFVVuSeV9R9Yn4XMNM5WewytY954gATpY5ico+XyjKpp6iCMNmZZmg6css9epTnEYqareTTOGPM2APe872JAvpe/orTIEe1MkFTcA6cRf6xtUC14S4tiLG6S7dSf1tF1TUxwsL3mwWbR0b5XCwyVF7TTWJYX0HuhdAPICIfZRwEmDjmF/K2nzzfGGGKUpzMGNzz/AEhBQMZc1l4EfTb6mOT/AFHbOd/K7lkbWxANVpqak5YomDYqRUTZOa0wziV/eB3H0i1d7cWijdocG/btNVyGYggAbWABPxEPUDWhxa7cJWpxNALea6HLxNkbK+h58DDBawNvHMsP7Q1FOxE9DPRhr+IW5G2vkfjD7AcXk1bskkvKmDUJMtZxxtY7jz9IlNw1kovGQgTAG0oseauKz+TekaqmY52I+MJ5kuelwy3sLnKb6c7b20MR/wDUja20Zb+FOYc2ppjcWbSCp8yUT7zacbb/ABMai6oLKLfU+cQGrSdrxNw7Bp84ghDbmdB8YZh4fI42spSHA3FIbDrkEUwMxgBE+qkW1Pl5DkOsPKXCFkLrq3T8ohVNPc3b0HAR2fCKNtO0k6lcXxniQqHBkX0j3Py/iqpOl63Ish4c/wC8LK6hK6gWHDn6xbamSupPzhNPqxqo1PMxvjvaBYt7ZpPKfIjA7MpHkdoiYjUAzROKllZZZKq2W5C5W1sbC6NwjdU07g2IPT/aPZdMS6Ktr94FAIzgq3BgN7HX+Yxm8WpXTQ2YMwQfLf8APkn+Hzsp5jITa7SCfQ7Z6gDLxS/FapZhBlNNC5BmWa+fIbkZVawuugI0Hyhp2TnPmVJYO/A2JvzY+6PnyjOdhqZytwGzDvEl2sijTQC+x387njFi7L0U6kbxU6zE1ImplsQfxcR5HbgY5GobJEPpztcDT5+cl0FPKydl2uyHXXfI6Hob5jMXVgw/FO675shYSCBMKJmK3GY6mYGawte3PaJ2MYpKnSEmy3vLvmBA3sCCDyIitdlarOqd4jlJ82dOayMwZsyogNhsAt7dRyvCftTPSj7xLA94z5JeoyK9swa3W4sDx6RF0b6lwgZudbbb7WGV973GmlwubB+6dgSNMzsNb3vbbIZnkr//AMep0+MEcY/4smf/AMpH/wAcEdL+masHtZOXujEahZUwqgKMpIJDEXsbHwm4tG/Dpk55neq65iPvArfQDTwkE6dY09qZaionqdCs+avwmMIuuH5gBYn3R9BDUcXbAtJ2+68dOafC5ut9fgKTitntNly5rkKNSpAGv3b2A4a+oi7YfRmy2BtlFuOmXSNdPRS3YPMlozDZioJ02iw0aQvFTupnvNxnkNclbV1zauKNljcXJJtmTYfwsaOTYROk0/jD3N8pW3Ai9/iNfjEiVL6RrxGqEpep2H5wvUzMDcT9Bn6Kmngke/DHqcvI6rTilXb9mBqd78OkRJVMLREkNdizbkxN74R8+r641UpdtsF1UUAgYGM8/FI+0MrY9CIouLCxzA2t/hjoWKPmUr0ijoytMGYXA1t14fnEqAEvWpACWWTTBMKm1ADKMq2uWbQRHr5CIWW+bhf9IbScY8GQaDkIr9ZMuxMb2Bgth1VkTXAm9rbfP6SXEJNysV3FZDSZyzJbFG3BU2II4gjaLdMFzeNNb2bepCsh1Fxb4RfB9fd+fCqKsN7PPn89lUZGIT0m98s5xMO75iWPQk7jodIt3ZXFa+pdQ03OC1lDKlj5ALvCqb2QqQ2Urp0ve3wjovs/7PtLKPkIyXIzX1Ot9/8ANYcbe6zHYGNxK0YdRSzOljIMyL4jYWYgb24a8IsLpEGiYNUsyi1116kBRf5fKGcxY9pH4sbv/Y+wA/hYfELuc2/LdK6inO8J6+VbeLEzREqaUN58I1YpcJzWI8kaKlzqBnOvu/i5eQ/WFU2lCN4VzHmdvj+kWqpllSb69DtCyofNccttI1o5SfBVYsGar+JUxK3Y6dNLfrGFE0iXLMwtlcKSoOznL938Nj+vKJVVL3Da35n/AARXaula+ikjhE5oi8AXsN+vT577Aa2Vpa6/l89lHmKb5kGVhqCN/O+9+sN8CrCKgtUhjLmC5c3YKTa4a/3bhtOTAxX50pxxt6/pGqY19zcwvW0Qq2BpdaxvfVO0s/YPLrA3Fvh5g/jdW9sZmT6xJdD+yp5Vh4VXVQbk6jw5icoA5xVO1M0vUTcwAyuQABlAF+A+ca6CtMl8632OgO/K/rY+kL6+sd2aZMYsxGpO5sLflFLaZsRwsaLACx39df40sAvCZJJe0c7Yi3iQb8tha3XNH2Ex7HZf+CB+Ax7CP6wJ/sSkfa/BT/qE/wDaSVDuGUONfEoJJJ03zRYaDDAFTOAWyi5U3BtoCNBoRbhFi7RYEZk5Z6KrMFCkEA7EkEA6HeF0gtc8+N9/hwidK59r4uiVrS0vDcJ8efgtsqjW0T6akjGTLbTaImNVjqRLUAAjVri/la9xC1fXCmiMjrn56K6io+3eGDJSqnFFS6pZm+IhTNmsxzObnrwiJcDW8L6zFQBYR89reIVFc6xybyC7GloWRC0Y8902nVIHHaIE/FAOMIZ2IE31iClUXfIitMfkiljzOgiuGkJK0BTtaO8nM3Ey5tewGp+kV2tn5J9wQQ4B+v8AcxPxDszWqomTl7tG63bmAQNAfMxVqv3suthoOem0btLQPjOIjUKLZ43G0ZBsrOkyPRLvCGhmTxoLMAN4miVPfQnKOkNhgae8UOltqFMqHVTlQhn6bL5/pEnB506Q1z+1XpZXHx0MY0OGBBDESrQCpJf+0AB831Ss0Rm1Ke0PaaVrmluv8Sf+pIhph2KzCSUQKjDRm362UfU/CI/Z3s0JsvvJpZQT4VXQkDibgxa6LCpUq2VdRsWNyPLgIYtVSC12tHMZn3WLKYo3EakenqsMMpSoLEWJ4ch1iWyxvManhyGJsTAxugWXO4vOIqDPEabxIniIwMOt0WTMlWLSD73xsLxW6mRY3yk+Zt9IulSLgjXblFYrJnQ/CNGkkOiUy5pTPltuoUeQhJVUE5w2Y7HQ8x6RYVqNSMp6RCrasLup1MO3dpZTZZuSq03CDxYfCNRwheL/ACiZV1pBItxhdOrWiWF3NX4uSxnYfLG7n5Row3DEm1MiUpLd5NlqdODOAfleNU2exiz+yeiM7EpZI0lK8w+gyL83B9IqnIZG5xOgV0QLnAL6AgggjmFs3UWucqhYfd1PkN4WLNlT9/C/Pn+sOpiAgg7GKpUYc0tiENwDty4iGYA03F7HYq6KKKVpY/XZSMUkOJbLcjkwOh87fSKs7W8/pDnE6+Y0h5fE2AvuNYrf2hb5S1mtrptpf6RgcepXvc3C27unLmtHh0Yp2ua92V8vRa6+rsLCK5WzsoLEw9rKQnVSp9df0j3s3ggnTgZq+CV4iDszfcHIjQk+Q5xk0nD5cbYy0i62HVkEEDpcVwB5+HmclJ7J9jWn2n1OZZZ1SUPCzDQhnO4BH3dD5R0iio5UoWlS0QE3IRQoJPE232HwjTLeN6tHWx0rIW2aFw1RxOapfikOWw2Hznusq2jScAHFwDf5EfnHz72swppE5l5MR84+h0iq9teya1MtnQftND52FiPofjzge24snuHVXZSd7QrjGE4gUI10uL+Qi4oRFArJBlOVMPcNxjP4ToeHWMirpiBiGu66x9iLq0d7Fp7KYCJoM2cNA1lU8bblum2nQ84rPZ+kzvmb3V+Z4f55RdKXFXlFUVboQSem28V0YBmbERr99R7LJ4nUmGBzhtqRsFbLR4YrlR2tljREZj1so+f6Qnr+0tS4suSWDx3b57fCOibTSHUW8Vy0lfC0ZG/gr3Gl45dJr5stsyz2BvfRtD5jY+oi99n8XFRLubZ1NmA26EdD+RictM6MX1CqirWzHDaxUqdEYbxNnCIpWBpyVMzVrdxtFdrRDiqbXyhRVw7TixS1kpnA3vEfEJDFTYiN9TeIU+oYFr7W0+QEPC98l6QAkNfSzCSdITT5TCH9TWmFFVUXhpuLde+CUzkMdb9iWE5JE6pYazXCr/DLvcjzZmH8ojliSnmusuWuZ3YKoHEsbCPpDA8OWnp5UhNpaBb8yNz6m59Yy+KSBrAwb/Yf7+yfo23di5JhBBBGGtFEVvtPSOCk+USGUhXtsVJ0JHEAn59Iska5iAggi4IsYnHIY3Bw+dFXLH2jS1cOxjtc71E8XsgHhA4AaMbc7Xa/QxUFxh2mMxJ1Yn4mHvbzBZdJVmWEmMSMyHUlweVhwII/3EKJIm6EUrkHUG4A9TewPQxn1DgH6/PNb1OC6MWCnS8cdeJ+nxifhXaeakwOG8xwYdf1iD9sQC1TIKrsH8LgebS7EfAxEn0BLosg5u8YBbG4NzbccBx5RKPI5eS9c1pBDgLbruWH1edVYDRlDA20IIuNYZpGnBx3UqXKFiqIqjyUAX+UTjMH4Y1HOPJcueHEXwuvy+XW2WsZgxplTI2hxFJTJZhyXPfaF2GE8GdJXxW8Sjj+8B9RHGp0l5TlWFiDH1RmjlXa7C5STmabKzk3KsQcpuN+R153+kDad0zrNIv1TbeM/pmhr2ucNsNr32vcjLrtySzsfWTGUIFuBu5uB/c+UP8AE64S1bWzDUm+/IDodRaKpMxaZoqgKAfCqCw04eRH5coQ4xj0yZPOfTJdQo531JtudP8AOL1NwuKlf2hzcd/xy677XssbiFZUcSOEgMaM8Iz83Hfp/iNbE5qwVNbOZiUGh2FwCPnGhkqzwP8AV/eFcrEJltEmHyU/pEpMUnAe5N/pP6Rpg8vss7sy3QD55rISKnNroOrr+Ri+9g6lJAmGc9mfKAACQMubUkD975RzyZjrA+NWX+IEfWGlDjqhb32iMjRK0supF0zCDhHkP9rsveqwupBHMG4iNOaOaUfaNNwxXnlNvpFqoqhyou5LWubna+tvTUfywiaUszJQ6qvkWlMJxhVVmJjzCNGIJtfrC+pa8MRBeX0yS+e8QZtQvE/GJcxSTa178t4nS8JkKf2pzN+E7DzA3i7E1uvsvXSFqrE6RLfax8t/7woqcOB91vjFwrsLkt46ZCHG6tcX6oDp6XhTT4DOnuFXcsAbA2F+fKwBPoYtbKALk2HVV9sMeG2ewGvp86pv7JOzp76ZVTBcIMks/vMPGR1C2H85jrEQMHw9KeSkmX7qC1zuTuSepNzE+OfqJjNIX+nh8910EMeBgaiCCCKFaiCCCBCRdqMDWplWFhMTWWxANj+E3+6bWPx4Ry2rqO7mFWzra1xc3U8VNuRuI7fFD9ovZBqhftFOP26jxINO+UcP4xw57crLzQB4unaWpwEMdp9lSZ9Mk5SVObYEHW99r8+ULMGwb7NUgsx7sMbrlJI0IHHrvyhRSYs0mYNxr4gdNje1uYIh9R9qEGbPYkt8vWKY2mIgtOnonpRjaWkZEEdc1dqKrUjwMCOQ0NuqnW3nDukqr7GKtg02TPVXzFTe6qDY2623vyOljDtMinRj8vr/AGh9nG6Z2ITHCRvY2PpfO+Weuy5qp4HLE4fpxcdbAjzyvl6KzyJo2MZM4U+e0ITidsrEWvYXve/CHUkhxr8YjBUxTgujNxvkR7EBO1dLJgBIsfl1KSZEfEKGXPTJNUMPgR1BGoMeOpXyjEVEMhu7VlGTDk5czx72fVMqa02lbvkbdGIV15AE6G3P5QuXA6vVpkh5aKLvMmlUVANySTcjyEdgEyEXbtgaGeG0zLb5gj6Q4ytmaLCy87OGaQY25kgXz/o2XNFpUeU82XOSYqNlNi4JNr6Z1HA79YhJTZtlOmptc2HM2GghJQVndKVv4b3PWHHZDFZpqe8loWRRqulrHmSedudoWg41U9oWvaCPQ38svZdG7gNKGdz6s7aH1uPdMZSLk8J2B8J1v5aa/CIFRRErmaXLuxJbKMpXb8NvnF0r8Mksi1EjSW/vKd5TXsVPLW48/SImRAIY/wD1XF2bBb39VQzgVK5hdGSCfY2O2upVFw/C2lzUJa6XvyOmoBHHzHI7RbZWLlW0PH48f/YesRq2lGUumwOohGXctoLsdAOZPujzJNtecbETIuzLmfSc1zFTBUCo7OQZjL3V6wvGFcsWOpNgeg0Hxtf1hhNS/G4hPO7EPLH7KehNhcajW2tiL3F7xCramppFvMC5dswYFbnaOFmPEYJn1ELjYm+E5tttkNLC2ll2ruF0NRE2PLIDP6Xac9fI3ClnGAJpWSSWlOqliAVYsdVW29hbXm2kWkS5GeZLzgupGYbEA2I14jUaxyXD6pTUJMYEsHVgcxF7EnUbEEgbxZKPtEiTKqdOYXaVMVVHEzLED0yqL9TyjTiq5X/uOyvt+ErNwqlY1rMGLCLAnMkl2+l9yr9IMtdEA0F9yTp1MP8ABMxlJMdMjuoJU7pcDwnrFD9mPZ+pd/8AUatmUzFtLlDwqRpZ2TYCwGUevKOnx7JLj00S8jWMOCMADLQAeOmRRBBBFSqRBBBAhEEEECEQQQQIXPO3ns1lVj/aJJMud98La03rroH68ePOOX1nY6WucCeS638DqyHMOBuNNY+k4rXajspKqxnH7OcBo4G/IOPvD5j5RbA2HF+7ex3G3sboknqWtHZEZbEXuuGSftFPrYlRxA0+I29Ylf8AEkzk0WaqoJlI+SoXLyYarM6J+YOvlGUjur5mlSmJ2GRf01gn/wDHGSHHC8EdfyNVbF/5TgGGoi73Q/w65HqVF7LPOqpgYgmXLIJubAkcBfTqf7x0mbMZFUDj8z+sJKGrRRbRelrAdBwENpFYGsDYgW1+kXQ0ApWYQL53PX/QSM3HHzT9o4WboG626+J32tYWyutsvGcujcI3LiEtvuj4Qtq6ZQLg5j9PhvC+ml3mKuq3YeXWLexYRcLXjbS1LMbcxv8ANla0VToBYnkSI5F7TMYnFhJW4W5vbUHbS/EggiOg0eKgTMzE2vp5RsxXsxS1YLKcrHUlbHfe4OnyimRrmDXVKvibTStkDL25ADNcCp763uTyA1MW7AJxpxmaX4XXK9wLi+t1J66ac78I6FI7G06EGZZyBY+HLm5XsOHS0MqfD6aVqkuSDwJBZv6mBMV4CRZPHiLpWEGMi/W3v/pc7oxWsriVKdkmDWysRmtbNcC21hf90RspezFazAFSOZc5QPjr6R0WZWIfeYt8h+UbJU2VwURIQ22VbqmoDnOYQ2/IX+6S4V2NC6tMuDvbiOpOg+cLZnZaXKqDMDAqvu6a3NrE+Vov0xwFtwy6/SElZRK43sb3hinneLi9gloy18gkmJcRuUslyrG4cg8x10iPX4RLmoUazA8GUMOmhiWtPkIvtffhG6lm52yIpY8h9TyEXuII/pPPlZbLNUao9nc1mLJOU8vBl2GgAUkADQWHKG/YT2cMHE+uF8p/ZyTqLg6PM4HmF9Tyjo+H0GTVrFumw8ufnDCM2RzSe6Eq+rldcZW6C3y6IIIIqSyIIIIEIggggQiCCCBCIIIIEIggggQo1ZRy5qFJiK6ncMLj/OsUbFOwTSyZlG9+UpzoP4W/I/GOhQRdDUSQnuHy29FTLTxyjvjz39fgXEKuumSGyT5Ty34Bhv1HP0vG6RiiiwVrnodz/aOwVlJLmrlmIrryYAj5xT8U9mlM5zSHeS3L30+BN/nGvFxSN2UjbeGY/P3WTLwt7c4zfxyP4SIYpcqgY9Ya02IoGBJFxry+PzhU/YOrlliO7maHVDY3Gxs1rE7EAmEVbh1XLPjlOu+4a2um4FtovHYTZNcPVJn9TAS4Ah2lxfTxGo6K8TKaWb2bW/LSx1EajTTUN1a1uRhTSYq8uUEBBbbMToBvYDhaM1qzz4RUIX53WhDx2pabOAd/8/a49gnYxCds2vnvGiZUA76ef9oVLiLBL8vyNjGSYwcxU2Olx4R+UH6cjQeiaZx+L/KIjwI/0fZT7Dn9Yzklgbf5pESXVzG9ySzH9xSfpDihoaliD3OQW++4B1HIAmKpLMHeI9QmWcSil+hrv+pt62spVZPYymI3uB8TmH5wrlT5l7C7t+EamLRR4VZSsxs2bcAWHx3MTaekSWLIoXyG/nzhDt2NBAF/nqrABaxuk9FhLuAZvh/dBuf0EOaelSWLIoUcbcfPnG+CF3yOdqgADREEEEQXqIIIIEIggggQiCCCBCIIIIEIggggQiCCCBCIIIIEIggggQiCCCPHaKTVV+1WxijzeMEEalB9KwuJ/Utcr3G/m/8AKLp2Y3HkIIIs4h9JXnD/AKwrhBBBGO1bz9UQQQR6ooggggQiCCCBCIIIIEIggggQiCCCBC//2Q==</t>
+    <t>https://github.com/dandrade0803/gestaoProjetos/blob/main/img/danilo.jpg?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/dandrade0803/gestaoProjetos/blob/main/img/luane.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,25 +447,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://scontent.fcgh13-1.fna.fbcdn.net/v/t39.30808-6/292777598_3239954282913995_2029280128632086324_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=09cbfe&amp;_nc_eui2=AeFM6kxk6NgL4wYKrwNRGIR5--yhckxdWHb77KFyTF1YdrAkpQi3bMQ8d68L64k65MF-7DWKTjxCmjuhtquzLe1l&amp;_nc_ohc=oyqH1WF-wK8AX_vSsqD&amp;_nc_ht=scontent.fcgh13-1.fna&amp;oh=00_AfDN1enJ8LgyfJ26bdAK6yNev0Pl6gWyijSEvz_agDIujw&amp;oe=63B9B7A3" xr:uid="{B224B237-A0AB-4ED2-871C-F1885AAF4529}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B224B237-A0AB-4ED2-871C-F1885AAF4529}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{7B803784-4FF7-43A3-AB16-7092F66E175C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>